--- a/biology/Botanique/Behnia_reticulata/Behnia_reticulata.xlsx
+++ b/biology/Botanique/Behnia_reticulata/Behnia_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Behnia reticulata est une espèce de la famille des Asparagaceae[2]. C'est la seule espèce connue dans le genre Behnia.
-Behnia reticulata est une plante grimpante originaire d'Afrique australe : Malawi, Mozambique, Zimbabwe, Afrique du Sud et Eswatini[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behnia reticulata est une espèce de la famille des Asparagaceae. C'est la seule espèce connue dans le genre Behnia.
+Behnia reticulata est une plante grimpante originaire d'Afrique australe : Malawi, Mozambique, Zimbabwe, Afrique du Sud et Eswatini.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Behnia reticulata (Thunb.) Didr.[4].
-L'espèce a été initialement classée dans le genre Ruscus sous le basionyme Ruscus reticulatus Thunb.[4].
-Behnia reticulata a pour synonymes[4],[3],[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Behnia reticulata (Thunb.) Didr..
+L'espèce a été initialement classée dans le genre Ruscus sous le basionyme Ruscus reticulatus Thunb..
+Behnia reticulata a pour synonymes :
 Dictyopsis thunbergii Harv.
 Dictyopsis thunbergii Harv. ex Hook.f.
 Hylonome reticulata (Thunb.) Webb &amp; Berthel.
